--- a/templates/2EXT02_Protein/2EXT02_Protein.xlsx
+++ b/templates/2EXT02_Protein/2EXT02_Protein.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT02_Protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859A7511-09A0-4D76-AF9E-9E61A8CBAA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF052BA-024F-4621-8302-D98FE618C444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D96B17D5-C151-43C3-BAD3-4849955C8A0B}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D96B17D5-C151-43C3-BAD3-4849955C8A0B}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=cf1fb06f-d72e-43d9-be25-4ea6c25f03e2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Source Name</t>
   </si>
@@ -106,6 +127,129 @@
   </si>
   <si>
     <t>Term Accession Number (OBI:0000468)</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>cf1fb06f-d72e-43d9-be25-4ea6c25f03e2</t>
+  </si>
+  <si>
+    <t>Protein extraction</t>
+  </si>
+  <si>
+    <t>This protocol focuses on lab works regarding protein extraction.</t>
+  </si>
+  <si>
+    <t>annotationTableHeavyHusky91</t>
+  </si>
+  <si>
+    <t>PRIDE</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Proteomics</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
@@ -113,9 +257,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00\ &quot;pH&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00\ &quot;pH&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,19 +267,121 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -144,16 +390,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;pH&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;pH&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,6 +442,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{7FE98FDD-0613-4A97-8A57-EBF8A80763CF}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,9 +747,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T16:46:13.05" personId="{7FE98FDD-0613-4A97-8A57-EBF8A80763CF}" id="{D96B17D5-C151-43C3-BAD3-4849955C8A0B}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T16:46:13.06" personId="{7FE98FDD-0613-4A97-8A57-EBF8A80763CF}" id="{2BD15E5F-9792-4E25-8CF3-4F9F574B8376}" parentId="{D96B17D5-C151-43C3-BAD3-4849955C8A0B}">
+    <text>id=cf1fb06f-d72e-43d9-be25-4ea6c25f03e2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="617" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -613,4 +906,258 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8F898E-70F9-4443-B417-1E256527228F}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableHeavyHusky91">
+    <TableValidation DateTime="2021-11-03 16:48" SwateVersion="0.5.1" TableName="annotationTableHeavyHusky91" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [cleavage agent name]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [molecule]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [sample state]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [staining]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [pH]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [sample pre-fractionation]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [protein column]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="26" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75EE371B-3F34-4043-9A07-969E1CB416F1}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/2EXT02_Protein/2EXT02_Protein.xlsx
+++ b/templates/2EXT02_Protein/2EXT02_Protein.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT02_Protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF052BA-024F-4621-8302-D98FE618C444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FBAC73-6EB5-442C-A099-B9D753D58573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="PRIDE_PROTEOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>Source Name</t>
   </si>
@@ -250,6 +251,102 @@
   </si>
   <si>
     <t>1.1.3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>MS:1001045</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001045</t>
+  </si>
+  <si>
+    <t>MS:1000859</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000859</t>
+  </si>
+  <si>
+    <t>MS:1000003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000003</t>
+  </si>
+  <si>
+    <t>OBI:0302887</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302887</t>
+  </si>
+  <si>
+    <t>CHEBI:35225</t>
+  </si>
+  <si>
+    <t>CHEBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_35225</t>
+  </si>
+  <si>
+    <t>UO:0000196</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000196</t>
+  </si>
+  <si>
+    <t>MS:1002493</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1002493</t>
+  </si>
+  <si>
+    <t>OBI:0000468</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000468</t>
   </si>
 </sst>
 </file>
@@ -780,7 +877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1137,6 +1236,453 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableHeavyHusky91">

--- a/templates/2EXT02_Protein/2EXT02_Protein.xlsx
+++ b/templates/2EXT02_Protein/2EXT02_Protein.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT02_Protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FBAC73-6EB5-442C-A099-B9D753D58573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4F860-732A-450D-8911-8918B7B55421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="PRIDE_PROTEOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>Source Name</t>
   </si>
@@ -347,6 +356,21 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this proteomics specific? In the other EXT templates we called this "Bio Entity" to come from the user side (what do I want to extract and assay). Let's try to merge. </t>
+  </si>
+  <si>
+    <t>Move to 3ASY02_ProteomicsMeasurement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraction buffer? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraction buffer pH? </t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -405,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -483,11 +507,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,6 +558,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,9 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1240,9 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1261,420 +1302,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
         <v>68</v>
       </c>
     </row>

--- a/templates/2EXT02_Protein/2EXT02_Protein.xlsx
+++ b/templates/2EXT02_Protein/2EXT02_Protein.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT02_Protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4F860-732A-450D-8911-8918B7B55421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F095B8-D584-4F7D-B843-35A4B0398A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t>Source Name</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Dominik</t>
   </si>
   <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -371,6 +368,72 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Arg-C</t>
+  </si>
+  <si>
+    <t>Trypsin</t>
+  </si>
+  <si>
+    <t>TrypChymo</t>
+  </si>
+  <si>
+    <t>no cleavage</t>
+  </si>
+  <si>
+    <t>unspecific cleavage</t>
+  </si>
+  <si>
+    <t>2-idobenzoate</t>
+  </si>
+  <si>
+    <t>nucleic acid</t>
+  </si>
+  <si>
+    <t>peptide</t>
+  </si>
+  <si>
+    <t>razor peptide</t>
+  </si>
+  <si>
+    <t>peptidoform ion</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>emulsion</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>suspension</t>
+  </si>
+  <si>
+    <t>gaseous sample state</t>
+  </si>
+  <si>
+    <t>solid sample state</t>
+  </si>
+  <si>
+    <t>liquid sample state</t>
+  </si>
+  <si>
+    <t>H&amp;E slide staining</t>
+  </si>
+  <si>
+    <t>IHC slide staining</t>
+  </si>
+  <si>
+    <t>Good's buffer substance</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -593,8 +656,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026C0533-5608-4C05-BA6A-272859E096EF}" name="annotationTableHeavyHusky91" displayName="annotationTableHeavyHusky91" ref="A1:AA2" totalsRowShown="0">
-  <autoFilter ref="A1:AA2" xr:uid="{026C0533-5608-4C05-BA6A-272859E096EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026C0533-5608-4C05-BA6A-272859E096EF}" name="annotationTableHeavyHusky91" displayName="annotationTableHeavyHusky91" ref="A1:AA7" totalsRowShown="0">
+  <autoFilter ref="A1:AA7" xr:uid="{026C0533-5608-4C05-BA6A-272859E096EF}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{B59AAE03-EB5E-4869-9B18-EEDF0068BBC3}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{43827FB3-2872-40B2-9801-D13BDF55886B}" name="Parameter [cleavage agent name]"/>
@@ -905,6 +968,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="678" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -918,9 +984,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{309CA121-9A6F-437A-AC14-0DA59E50DA53}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,7 +1115,85 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>124</v>
+      </c>
       <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,7 +1237,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,40 +1457,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1344,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1360,7 +1514,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1368,25 +1522,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,27 +1548,27 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1422,27 +1576,27 @@
         <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1450,27 +1604,27 @@
         <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1478,27 +1632,27 @@
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,27 +1660,27 @@
         <v>17</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1534,27 +1688,27 @@
         <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1562,27 +1716,27 @@
         <v>24</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1590,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1606,7 +1760,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1617,24 +1771,24 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableHeavyHusky91">
-    <TableValidation DateTime="2021-11-03 16:48" SwateVersion="0.5.1" TableName="annotationTableHeavyHusky91" Userlist="">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [cleavage agent name]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [molecule]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [sample state]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [staining]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [pH]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [sample pre-fractionation]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [protein column]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    <TableValidation DateTime="2021-12-13 19:08" SwateVersion="0.5.1" TableName="annotationTableHeavyHusky91" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [cleavage agent name]" Importance="3" Unit="None" ValidationFormat="OntologyTerm (cleavage agent name)"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [molecule]" Importance="3" Unit="None" ValidationFormat="OntologyTerm molecule"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [sample state]" Importance="2" Unit="None" ValidationFormat="OntologyTerm (sample state)"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [staining]" Importance="3" Unit="None" ValidationFormat="OntologyTerm staining"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [buffer]" Importance="2" Unit="None" ValidationFormat="OntologyTerm buffer"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [pH]" Importance="2" Unit="None" ValidationFormat="UnitTerm pH"/>
+      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [sample pre-fractionation]" Importance="3" Unit="None" ValidationFormat="OntologyTerm (sample pre-fractionation)"/>
+      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [protein column]" Importance="3" Unit="None" ValidationFormat="OntologyTerm (protein column)"/>
+      <ColumnValidation ColumnAdress="26" ColumnHeader="Sample Name" Importance="5" Unit="None" ValidationFormat="Text"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75EE371B-3F34-4043-9A07-969E1CB416F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DF6AF9-6348-44ED-9B04-EC5B5327D188}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT02_Protein/2EXT02_Protein.xlsx
+++ b/templates/2EXT02_Protein/2EXT02_Protein.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT02_Protein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\2EXT02_Protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F095B8-D584-4F7D-B843-35A4B0398A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF4F6E0-62D2-4587-845B-4256A599EDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D96B17D5-C151-43C3-BAD3-4849955C8A0B}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=cf1fb06f-d72e-43d9-be25-4ea6c25f03e2</t>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
   <si>
     <t>Source Name</t>
   </si>
@@ -94,21 +94,9 @@
     <t>Parameter [staining]</t>
   </si>
   <si>
-    <t>Term Source REF (OBI:0302887)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (OBI:0302887)</t>
-  </si>
-  <si>
     <t>Parameter [buffer]</t>
   </si>
   <si>
-    <t>Term Source REF (CHEBI:35225)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (CHEBI:35225)</t>
-  </si>
-  <si>
     <t>Parameter [pH]</t>
   </si>
   <si>
@@ -133,12 +121,6 @@
     <t>Parameter [protein column]</t>
   </si>
   <si>
-    <t>Term Source REF (OBI:0000468)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (OBI:0000468)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -433,7 +415,79 @@
     <t>Good's buffer substance</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>Term Source REF ()</t>
+  </si>
+  <si>
+    <t>Term Accession Number ()</t>
+  </si>
+  <si>
+    <t>Term Source REF ()2</t>
+  </si>
+  <si>
+    <t>Term Accession Number ()2</t>
+  </si>
+  <si>
+    <t>Term Source REF ()3</t>
+  </si>
+  <si>
+    <t>Term Accession Number ()3</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001303</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001251</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001312</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001955</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001956</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1003041</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000860</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1003015</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1003051</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000882</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1003036</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000047</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000051</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000052</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000048</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000050</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000049</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
@@ -630,7 +684,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -670,11 +724,11 @@
     <tableColumn id="10" xr3:uid="{2AE81524-F7BC-4CED-BC6F-8FE76E960298}" name="Term Source REF (MS:1000003)"/>
     <tableColumn id="11" xr3:uid="{E89960B1-47E1-43FD-832D-D1E3FBF51F23}" name="Term Accession Number (MS:1000003)"/>
     <tableColumn id="12" xr3:uid="{9CA06C7C-058F-4B37-AC7A-12B3E4C63A5B}" name="Parameter [staining]"/>
-    <tableColumn id="13" xr3:uid="{BDF38729-6075-4DDC-92EC-18B22F924A5B}" name="Term Source REF (OBI:0302887)"/>
-    <tableColumn id="14" xr3:uid="{4C48CDEB-E2A1-4229-B3BA-5B9AF1B61DC0}" name="Term Accession Number (OBI:0302887)"/>
+    <tableColumn id="13" xr3:uid="{BDF38729-6075-4DDC-92EC-18B22F924A5B}" name="Term Source REF ()"/>
+    <tableColumn id="14" xr3:uid="{4C48CDEB-E2A1-4229-B3BA-5B9AF1B61DC0}" name="Term Accession Number ()"/>
     <tableColumn id="15" xr3:uid="{687A99E7-B6DD-4483-B15C-FB80607A1F17}" name="Parameter [buffer]"/>
-    <tableColumn id="16" xr3:uid="{278B5C07-179F-4E97-8082-8112D4A45914}" name="Term Source REF (CHEBI:35225)"/>
-    <tableColumn id="17" xr3:uid="{B51035F5-F3D6-48CC-BE83-F5A375E2289B}" name="Term Accession Number (CHEBI:35225)"/>
+    <tableColumn id="16" xr3:uid="{278B5C07-179F-4E97-8082-8112D4A45914}" name="Term Source REF ()2"/>
+    <tableColumn id="17" xr3:uid="{B51035F5-F3D6-48CC-BE83-F5A375E2289B}" name="Term Accession Number ()2"/>
     <tableColumn id="18" xr3:uid="{A76F4D4C-FBEC-4E1F-ABF1-313BBB6F55B7}" name="Parameter [pH]"/>
     <tableColumn id="21" xr3:uid="{78B7D35C-7FA9-4BC4-BECD-4CD211088C0D}" name="Unit" dataDxfId="0"/>
     <tableColumn id="19" xr3:uid="{8374D543-1198-4666-AE2A-72A23EA25666}" name="Term Source REF (UO:0000196)"/>
@@ -683,8 +737,8 @@
     <tableColumn id="31" xr3:uid="{0FDA3F08-732B-44E4-A593-E065B3A2582C}" name="Term Source REF (MS:1002493)"/>
     <tableColumn id="32" xr3:uid="{1755E1AD-351F-40BF-902C-735B0C443F5C}" name="Term Accession Number (MS:1002493)"/>
     <tableColumn id="33" xr3:uid="{480935E8-E049-46CA-8DA2-93D8D9C72DC6}" name="Parameter [protein column]"/>
-    <tableColumn id="34" xr3:uid="{1723442C-9032-4A69-B734-91DEEA704BFD}" name="Term Source REF (OBI:0000468)"/>
-    <tableColumn id="35" xr3:uid="{A1534108-7A55-4F03-A123-CA39CE80036C}" name="Term Accession Number (OBI:0000468)"/>
+    <tableColumn id="34" xr3:uid="{1723442C-9032-4A69-B734-91DEEA704BFD}" name="Term Source REF ()3"/>
+    <tableColumn id="35" xr3:uid="{A1534108-7A55-4F03-A123-CA39CE80036C}" name="Term Accession Number ()3"/>
     <tableColumn id="2" xr3:uid="{F18EF81D-B0BD-4C6E-A4BF-C5543EDB3CC7}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -965,7 +1019,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="667" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="678" row="2">
@@ -998,9 +1052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -1066,49 +1120,49 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y1" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="Z1" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="AA1" t="s">
         <v>1</v>
@@ -1116,82 +1170,208 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
         <v>116</v>
       </c>
-      <c r="K2" t="s">
-        <v>122</v>
+      <c r="L2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="O2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" t="s">
         <v>111</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
         <v>117</v>
       </c>
-      <c r="K3" t="s">
-        <v>123</v>
+      <c r="L3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" t="s">
+        <v>130</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
         <v>112</v>
       </c>
-      <c r="H4" t="s">
-        <v>118</v>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
       </c>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
         <v>107</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" t="s">
         <v>113</v>
       </c>
-      <c r="H5" t="s">
-        <v>119</v>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>140</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
         <v>108</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" t="s">
         <v>114</v>
       </c>
-      <c r="H6" t="s">
-        <v>120</v>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>141</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
         <v>109</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" t="s">
-        <v>121</v>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -1208,9 +1388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8F898E-70F9-4443-B417-1E256527228F}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -1218,105 +1400,105 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
@@ -1324,7 +1506,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="9"/>
@@ -1332,97 +1514,97 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
@@ -1439,7 +1621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -1457,40 +1639,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1514,7 +1696,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1522,25 +1704,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1548,27 +1730,27 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1576,27 +1758,27 @@
         <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1604,139 +1786,139 @@
         <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1744,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1760,7 +1942,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
